--- a/teaching/traditional_assets/database/data/thailand/thailand_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/thailand/thailand_bank_money_center.xlsx
@@ -591,13 +591,13 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0371</v>
+        <v>0.0614</v>
       </c>
       <c r="E2">
-        <v>0.00371</v>
+        <v>0.08210000000000001</v>
       </c>
       <c r="F2">
-        <v>0.07530000000000001</v>
+        <v>-0.01</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -606,91 +606,91 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.006973239450171191</v>
+        <v>0.009040994894134194</v>
       </c>
       <c r="J2">
-        <v>0.005404441432894655</v>
+        <v>0.007303423116080456</v>
       </c>
       <c r="K2">
-        <v>6769.66</v>
+        <v>5066.4</v>
       </c>
       <c r="L2">
-        <v>0.3104223698751369</v>
+        <v>0.2801530600959943</v>
       </c>
       <c r="M2">
-        <v>2462.9</v>
+        <v>2547.41</v>
       </c>
       <c r="N2">
-        <v>0.03808064518622856</v>
+        <v>0.05187351984703134</v>
       </c>
       <c r="O2">
-        <v>0.3638144308576797</v>
+        <v>0.5028047528817307</v>
       </c>
       <c r="P2">
-        <v>2436.5</v>
+        <v>2281.21</v>
       </c>
       <c r="Q2">
-        <v>0.03767245604622433</v>
+        <v>0.04645282550129205</v>
       </c>
       <c r="R2">
-        <v>0.3599146781374545</v>
+        <v>0.4502625138165167</v>
       </c>
       <c r="S2">
-        <v>26.40000000000001</v>
+        <v>266.2</v>
       </c>
       <c r="T2">
-        <v>0.01071907101384547</v>
+        <v>0.1044982943460221</v>
       </c>
       <c r="U2">
-        <v>8325.4</v>
+        <v>7868.506</v>
       </c>
       <c r="V2">
-        <v>0.1287249191739118</v>
+        <v>0.1602282719144092</v>
       </c>
       <c r="W2">
-        <v>0.1053251238400893</v>
+        <v>0.06801563044067009</v>
       </c>
       <c r="X2">
-        <v>0.06283225008182242</v>
+        <v>0.06209237027148826</v>
       </c>
       <c r="Y2">
-        <v>0.04249287375826689</v>
+        <v>0.005923260169181835</v>
       </c>
       <c r="Z2">
-        <v>0.2408442421279052</v>
+        <v>0.1709657524212734</v>
       </c>
       <c r="AA2">
-        <v>0.001440583842644709</v>
+        <v>0.001207079293322671</v>
       </c>
       <c r="AB2">
-        <v>0.05132324036634608</v>
+        <v>0.04598496391510937</v>
       </c>
       <c r="AC2">
-        <v>-0.0500622530872622</v>
+        <v>-0.0447778846217867</v>
       </c>
       <c r="AD2">
-        <v>43644.2</v>
+        <v>40753.7</v>
       </c>
       <c r="AE2">
-        <v>627.3514569730585</v>
+        <v>624.480159682598</v>
       </c>
       <c r="AF2">
-        <v>44271.55145697306</v>
+        <v>41378.1801596826</v>
       </c>
       <c r="AG2">
-        <v>35946.15145697306</v>
+        <v>33509.6741596826</v>
       </c>
       <c r="AH2">
-        <v>0.4063569258841943</v>
+        <v>0.4572867852083417</v>
       </c>
       <c r="AI2">
-        <v>0.371370267310089</v>
+        <v>0.3547293651079991</v>
       </c>
       <c r="AJ2">
-        <v>0.3572393022849864</v>
+        <v>0.4055988496484488</v>
       </c>
       <c r="AK2">
-        <v>0.3241722777742607</v>
+        <v>0.3080537101462717</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>157.2525960034878</v>
+        <v>141.3111093388627</v>
       </c>
       <c r="AP2">
-        <v>129.5160784925275</v>
+        <v>116.1928666375954</v>
       </c>
     </row>
     <row r="3">
@@ -713,7 +713,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Thanachart Capital Public Company Limited (SET:TCAP)</t>
+          <t>TMB Bank Public Company Limited (SET:TMB)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -722,13 +722,13 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.05139999999999999</v>
+        <v>0.0955</v>
       </c>
       <c r="E3">
-        <v>0.09669999999999999</v>
+        <v>0.0161</v>
       </c>
       <c r="F3">
-        <v>0.08900000000000001</v>
+        <v>0.134</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -737,91 +737,91 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.02376545663920965</v>
+        <v>0.03723132926512523</v>
       </c>
       <c r="J3">
-        <v>0.01920246037875698</v>
+        <v>0.03040543306660387</v>
       </c>
       <c r="K3">
-        <v>274.7</v>
+        <v>332.3</v>
       </c>
       <c r="L3">
-        <v>0.198870629117498</v>
+        <v>0.2441407684960694</v>
       </c>
       <c r="M3">
-        <v>124.3</v>
+        <v>98.3</v>
       </c>
       <c r="N3">
-        <v>0.06074081313526192</v>
+        <v>0.02834078131757244</v>
       </c>
       <c r="O3">
-        <v>0.4524936294139061</v>
+        <v>0.2958170328016852</v>
       </c>
       <c r="P3">
-        <v>97.90000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="Q3">
-        <v>0.04784010946051603</v>
+        <v>0.02834078131757244</v>
       </c>
       <c r="R3">
-        <v>0.3563887877684747</v>
+        <v>0.2958170328016852</v>
       </c>
       <c r="S3">
-        <v>26.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="T3">
-        <v>0.2123893805309735</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>306.3</v>
+        <v>599.2</v>
       </c>
       <c r="V3">
-        <v>0.1496774824081314</v>
+        <v>0.1727547931382442</v>
       </c>
       <c r="W3">
-        <v>0.1375770020533881</v>
+        <v>0.09911710314382868</v>
       </c>
       <c r="X3">
-        <v>0.07743419129851364</v>
+        <v>0.06329330678962253</v>
       </c>
       <c r="Y3">
-        <v>0.06014281075487443</v>
+        <v>0.03582379635420616</v>
       </c>
       <c r="Z3">
-        <v>0.4238068343928074</v>
+        <v>0.2702567367627181</v>
       </c>
       <c r="AA3">
-        <v>0.008138133945674305</v>
+        <v>0.008217273120437605</v>
       </c>
       <c r="AB3">
-        <v>0.0514716351856354</v>
+        <v>0.04787153370573108</v>
       </c>
       <c r="AC3">
-        <v>-0.0433335012399611</v>
+        <v>-0.03965426058529348</v>
       </c>
       <c r="AD3">
-        <v>2789.4</v>
+        <v>3318.2</v>
       </c>
       <c r="AE3">
-        <v>124.8638737212986</v>
+        <v>140.1221886861902</v>
       </c>
       <c r="AF3">
-        <v>2914.263873721299</v>
+        <v>3458.32218868619</v>
       </c>
       <c r="AG3">
-        <v>2607.963873721299</v>
+        <v>2859.12218868619</v>
       </c>
       <c r="AH3">
-        <v>0.5874745695146505</v>
+        <v>0.4992653332916187</v>
       </c>
       <c r="AI3">
-        <v>0.377731947295067</v>
+        <v>0.3498724695711221</v>
       </c>
       <c r="AJ3">
-        <v>0.5603265976787836</v>
+        <v>0.451847803713425</v>
       </c>
       <c r="AK3">
-        <v>0.3520059105109971</v>
+        <v>0.3079184685879744</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>48.25951557093426</v>
+        <v>42.16264294790343</v>
       </c>
       <c r="AP3">
-        <v>45.12048224431312</v>
+        <v>36.32937978000242</v>
       </c>
     </row>
     <row r="4">
@@ -844,7 +844,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>The Siam Commercial Bank Public Company Limited (SET:SCB)</t>
+          <t>TISCO Financial Group Public Company Limited (SET:TISCO)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -853,13 +853,13 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.025</v>
+        <v>0.0858</v>
       </c>
       <c r="E4">
-        <v>-0.0449</v>
+        <v>0.08210000000000001</v>
       </c>
       <c r="F4">
-        <v>0.091</v>
+        <v>-0.01</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -868,34 +868,34 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.01451126997713012</v>
+        <v>0.006709800035637739</v>
       </c>
       <c r="J4">
-        <v>0.009941979865801724</v>
+        <v>0.005387845072935541</v>
       </c>
       <c r="K4">
-        <v>1373</v>
+        <v>199.2</v>
       </c>
       <c r="L4">
-        <v>0.3247628734299974</v>
+        <v>0.3905116643795334</v>
       </c>
       <c r="M4">
-        <v>610.9</v>
+        <v>196.5</v>
       </c>
       <c r="N4">
-        <v>0.0441239138756672</v>
+        <v>0.08324860193187596</v>
       </c>
       <c r="O4">
-        <v>0.4449380917698471</v>
+        <v>0.9864457831325302</v>
       </c>
       <c r="P4">
-        <v>610.9</v>
+        <v>196.5</v>
       </c>
       <c r="Q4">
-        <v>0.0441239138756672</v>
+        <v>0.08324860193187596</v>
       </c>
       <c r="R4">
-        <v>0.4449380917698471</v>
+        <v>0.9864457831325302</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -904,55 +904,55 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>1313.1</v>
+        <v>33</v>
       </c>
       <c r="V4">
-        <v>0.09484221854663381</v>
+        <v>0.01398068124046772</v>
       </c>
       <c r="W4">
-        <v>0.119038329822006</v>
+        <v>0.1630247974465995</v>
       </c>
       <c r="X4">
-        <v>0.05462808355729071</v>
+        <v>0.04615933483943911</v>
       </c>
       <c r="Y4">
-        <v>0.06441024626471534</v>
+        <v>0.1168654626071604</v>
       </c>
       <c r="Z4">
-        <v>0.289127800604499</v>
+        <v>0.2317439032416139</v>
       </c>
       <c r="AA4">
-        <v>0.002874502772253464</v>
+        <v>0.00124860024726318</v>
       </c>
       <c r="AB4">
-        <v>0.04984722899854792</v>
+        <v>0.04184407149207444</v>
       </c>
       <c r="AC4">
-        <v>-0.04697272622629445</v>
+        <v>-0.04059547124481126</v>
       </c>
       <c r="AD4">
-        <v>5074.2</v>
+        <v>656.2</v>
       </c>
       <c r="AE4">
-        <v>143.253519588435</v>
+        <v>14.13665500910595</v>
       </c>
       <c r="AF4">
-        <v>5217.453519588435</v>
+        <v>670.336655009106</v>
       </c>
       <c r="AG4">
-        <v>3904.353519588435</v>
+        <v>637.336655009106</v>
       </c>
       <c r="AH4">
-        <v>0.2737017112753045</v>
+        <v>0.2211794462251264</v>
       </c>
       <c r="AI4">
-        <v>0.2873402546168439</v>
+        <v>0.3586919451801098</v>
       </c>
       <c r="AJ4">
-        <v>0.2199703509338786</v>
+        <v>0.2126059518751056</v>
       </c>
       <c r="AK4">
-        <v>0.231785920384062</v>
+        <v>0.3471641408129226</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="AN4">
-        <v>56.38</v>
+        <v>104.992</v>
       </c>
       <c r="AP4">
-        <v>43.38170577320483</v>
+        <v>101.973864801457</v>
       </c>
     </row>
     <row r="5">
@@ -975,7 +975,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TISCO Financial Group Public Company Limited (SET:TISCO)</t>
+          <t>The Siam Commercial Bank Public Company Limited (SET:SCB)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -984,13 +984,13 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.129</v>
+        <v>-0.0135</v>
       </c>
       <c r="E5">
-        <v>0.133</v>
+        <v>-0.102</v>
       </c>
       <c r="F5">
-        <v>0.06909999999999999</v>
+        <v>-0.0307</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -999,34 +999,34 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.00518242147711567</v>
+        <v>0.01853587693920025</v>
       </c>
       <c r="J5">
-        <v>0.004155563970814113</v>
+        <v>0.01470302313668085</v>
       </c>
       <c r="K5">
-        <v>233</v>
+        <v>879</v>
       </c>
       <c r="L5">
-        <v>0.3975430813854291</v>
+        <v>0.2737038766931341</v>
       </c>
       <c r="M5">
-        <v>183.1</v>
+        <v>511.3</v>
       </c>
       <c r="N5">
-        <v>0.06901360672420942</v>
+        <v>0.05160632639260373</v>
       </c>
       <c r="O5">
-        <v>0.7858369098712447</v>
+        <v>0.5816837315130831</v>
       </c>
       <c r="P5">
-        <v>183.1</v>
+        <v>511.3</v>
       </c>
       <c r="Q5">
-        <v>0.06901360672420942</v>
+        <v>0.05160632639260373</v>
       </c>
       <c r="R5">
-        <v>0.7858369098712447</v>
+        <v>0.5816837315130831</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1035,55 +1035,55 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>35.8</v>
+        <v>1312.5</v>
       </c>
       <c r="V5">
-        <v>0.01349364893897705</v>
+        <v>0.1324727232354633</v>
       </c>
       <c r="W5">
-        <v>0.2104597597326348</v>
+        <v>0.06801563044067009</v>
       </c>
       <c r="X5">
-        <v>0.05475618118181641</v>
+        <v>0.05040624719664227</v>
       </c>
       <c r="Y5">
-        <v>0.1557035785508184</v>
+        <v>0.01760938324402782</v>
       </c>
       <c r="Z5">
-        <v>0.187191818151013</v>
+        <v>0.1910872349192553</v>
       </c>
       <c r="AA5">
-        <v>0.0007778875751395369</v>
+        <v>0.002809560036142179</v>
       </c>
       <c r="AB5">
-        <v>0.04880087869690256</v>
+        <v>0.0441997824997927</v>
       </c>
       <c r="AC5">
-        <v>-0.04802299112176302</v>
+        <v>-0.04139022246365052</v>
       </c>
       <c r="AD5">
-        <v>1000.9</v>
+        <v>4443</v>
       </c>
       <c r="AE5">
-        <v>14.51291386131253</v>
+        <v>121.8601560487921</v>
       </c>
       <c r="AF5">
-        <v>1015.412913861313</v>
+        <v>4564.860156048792</v>
       </c>
       <c r="AG5">
-        <v>979.6129138613126</v>
+        <v>3252.360156048792</v>
       </c>
       <c r="AH5">
-        <v>0.2767914241284582</v>
+        <v>0.3154148337839808</v>
       </c>
       <c r="AI5">
-        <v>0.4538334911587328</v>
+        <v>0.2617321589640596</v>
       </c>
       <c r="AJ5">
-        <v>0.269664280412419</v>
+        <v>0.2471386997842789</v>
       </c>
       <c r="AK5">
-        <v>0.4449523836336935</v>
+        <v>0.2016534823895778</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1092,10 +1092,10 @@
         <v>0</v>
       </c>
       <c r="AN5">
-        <v>168.5016835016835</v>
+        <v>52.95589988081048</v>
       </c>
       <c r="AP5">
-        <v>164.9179989665509</v>
+        <v>38.76472176458632</v>
       </c>
     </row>
     <row r="6">
@@ -1115,10 +1115,10 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.147</v>
+        <v>0.0818</v>
       </c>
       <c r="E6">
-        <v>0.224</v>
+        <v>0.128</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1127,91 +1127,91 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.03166177036957425</v>
+        <v>0.04816532026875611</v>
       </c>
       <c r="J6">
-        <v>0.0269098351876314</v>
+        <v>0.03990709006941957</v>
       </c>
       <c r="K6">
-        <v>100.9</v>
+        <v>86.5</v>
       </c>
       <c r="L6">
-        <v>0.4697392923649907</v>
+        <v>0.4424552429667519</v>
       </c>
       <c r="M6">
-        <v>79.59999999999999</v>
+        <v>40.4</v>
       </c>
       <c r="N6">
-        <v>0.08275288491527186</v>
+        <v>0.05521388547218805</v>
       </c>
       <c r="O6">
-        <v>0.7888999008919722</v>
+        <v>0.4670520231213873</v>
       </c>
       <c r="P6">
-        <v>79.59999999999999</v>
+        <v>29.8</v>
       </c>
       <c r="Q6">
-        <v>0.08275288491527186</v>
+        <v>0.04072707393740604</v>
       </c>
       <c r="R6">
-        <v>0.7888999008919722</v>
+        <v>0.3445086705202312</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>10.6</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>0.2623762376237623</v>
       </c>
       <c r="U6">
-        <v>51.4</v>
+        <v>25.3</v>
       </c>
       <c r="V6">
-        <v>0.05343590809855495</v>
+        <v>0.03457701243679103</v>
       </c>
       <c r="W6">
-        <v>0.08057818239897781</v>
+        <v>0.06307883030700795</v>
       </c>
       <c r="X6">
-        <v>0.07277403024272787</v>
+        <v>0.06696029909634194</v>
       </c>
       <c r="Y6">
-        <v>0.007804152156249938</v>
+        <v>-0.003881468789333986</v>
       </c>
       <c r="Z6">
-        <v>0.08144090469839851</v>
+        <v>0.07866195335143528</v>
       </c>
       <c r="AA6">
-        <v>0.0021915613229655</v>
+        <v>0.003139169657432208</v>
       </c>
       <c r="AB6">
-        <v>0.05112827117920435</v>
+        <v>0.0454013142474335</v>
       </c>
       <c r="AC6">
-        <v>-0.04893670985623885</v>
+        <v>-0.04226214459000129</v>
       </c>
       <c r="AD6">
-        <v>1145.5</v>
+        <v>821.3</v>
       </c>
       <c r="AE6">
-        <v>18.49525862307726</v>
+        <v>19.91839943729091</v>
       </c>
       <c r="AF6">
-        <v>1163.995258623077</v>
+        <v>841.2183994372908</v>
       </c>
       <c r="AG6">
-        <v>1112.595258623077</v>
+        <v>815.9183994372909</v>
       </c>
       <c r="AH6">
-        <v>0.5475318004975401</v>
+        <v>0.5348137574957705</v>
       </c>
       <c r="AI6">
-        <v>0.4591162526984115</v>
+        <v>0.4075041910524061</v>
       </c>
       <c r="AJ6">
-        <v>0.5363209455400489</v>
+        <v>0.52720903275249</v>
       </c>
       <c r="AK6">
-        <v>0.4479235808195203</v>
+        <v>0.4001525438232732</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -1220,10 +1220,10 @@
         <v>0</v>
       </c>
       <c r="AN6">
-        <v>109.0952380952381</v>
+        <v>61.2910447761194</v>
       </c>
       <c r="AP6">
-        <v>105.9614532021978</v>
+        <v>60.88943279382767</v>
       </c>
     </row>
     <row r="7">
@@ -1234,7 +1234,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TMB Bank Public Company Limited (SET:TMB)</t>
+          <t>Kiatnakin Phatra Bank Public Company Limited (SET:KKP)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1243,13 +1243,13 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.0129</v>
+        <v>0.115</v>
       </c>
       <c r="E7">
-        <v>-0.0266</v>
+        <v>0.148</v>
       </c>
       <c r="F7">
-        <v>-0.06</v>
+        <v>-0.008</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1258,34 +1258,34 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.009703271409255521</v>
+        <v>0.007140832137945603</v>
       </c>
       <c r="J7">
-        <v>0.007959949201409201</v>
+        <v>0.005653810978136675</v>
       </c>
       <c r="K7">
-        <v>238.8</v>
+        <v>180.3</v>
       </c>
       <c r="L7">
-        <v>0.263779962443389</v>
+        <v>0.3209327162691349</v>
       </c>
       <c r="M7">
-        <v>100.3</v>
+        <v>73.7</v>
       </c>
       <c r="N7">
-        <v>0.01855757844878626</v>
+        <v>0.05048982667671439</v>
       </c>
       <c r="O7">
-        <v>0.4200167504187604</v>
+        <v>0.4087631724902939</v>
       </c>
       <c r="P7">
-        <v>100.3</v>
+        <v>73.7</v>
       </c>
       <c r="Q7">
-        <v>0.01855757844878626</v>
+        <v>0.05048982667671439</v>
       </c>
       <c r="R7">
-        <v>0.4200167504187604</v>
+        <v>0.4087631724902939</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1294,55 +1294,55 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>351.9</v>
+        <v>34.6</v>
       </c>
       <c r="V7">
-        <v>0.06510879218472468</v>
+        <v>0.02370350071932589</v>
       </c>
       <c r="W7">
-        <v>0.07954431897671631</v>
+        <v>0.1297028990720092</v>
       </c>
       <c r="X7">
-        <v>0.05419618058741403</v>
+        <v>0.06764028358853956</v>
       </c>
       <c r="Y7">
-        <v>0.02534813838930228</v>
+        <v>0.06206261548346965</v>
       </c>
       <c r="Z7">
-        <v>0.2293595331632016</v>
+        <v>0.1424084218892057</v>
       </c>
       <c r="AA7">
-        <v>0.001825690232838014</v>
+        <v>0.0008051502990563106</v>
       </c>
       <c r="AB7">
-        <v>0.05099823226853891</v>
+        <v>0.04546986915859293</v>
       </c>
       <c r="AC7">
-        <v>-0.0491725420357009</v>
+        <v>-0.04466471885953661</v>
       </c>
       <c r="AD7">
-        <v>1895.5</v>
+        <v>1704.3</v>
       </c>
       <c r="AE7">
-        <v>34.07814196600488</v>
+        <v>15.1914025245108</v>
       </c>
       <c r="AF7">
-        <v>1929.578141966005</v>
+        <v>1719.491402524511</v>
       </c>
       <c r="AG7">
-        <v>1577.678141966005</v>
+        <v>1684.891402524511</v>
       </c>
       <c r="AH7">
-        <v>0.2630868090813729</v>
+        <v>0.5408580940295412</v>
       </c>
       <c r="AI7">
-        <v>0.3652997097231227</v>
+        <v>0.5462879969571022</v>
       </c>
       <c r="AJ7">
-        <v>0.2259481676689918</v>
+        <v>0.5358061467610267</v>
       </c>
       <c r="AK7">
-        <v>0.3199977965820987</v>
+        <v>0.541245119134647</v>
       </c>
       <c r="AL7">
         <v>0</v>
@@ -1351,10 +1351,10 @@
         <v>0</v>
       </c>
       <c r="AN7">
-        <v>121.5064102564103</v>
+        <v>241.7446808510638</v>
       </c>
       <c r="AP7">
-        <v>101.1332142285901</v>
+        <v>238.9916883013491</v>
       </c>
     </row>
     <row r="8">
@@ -1365,7 +1365,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Kiatnakin Bank Public Company Limited (SET:KKP)</t>
+          <t>Bank of Ayudhya Public Company Limited (SET:BAY)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1374,13 +1374,10 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.0922</v>
+        <v>0.0614</v>
       </c>
       <c r="E8">
-        <v>0.12</v>
-      </c>
-      <c r="F8">
-        <v>0.064</v>
+        <v>0.08359999999999999</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1389,34 +1386,34 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.01048870036097467</v>
+        <v>0.00801614018429102</v>
       </c>
       <c r="J8">
-        <v>0.008642910592215376</v>
+        <v>0.00650043443820671</v>
       </c>
       <c r="K8">
-        <v>187.4</v>
+        <v>826.3</v>
       </c>
       <c r="L8">
-        <v>0.3283111422564822</v>
+        <v>0.3234177462914399</v>
       </c>
       <c r="M8">
-        <v>124.5</v>
+        <v>104.8</v>
       </c>
       <c r="N8">
-        <v>0.06672383300284045</v>
+        <v>0.01368628628890079</v>
       </c>
       <c r="O8">
-        <v>0.6643543223052294</v>
+        <v>0.1268304489894711</v>
       </c>
       <c r="P8">
-        <v>124.5</v>
+        <v>104.8</v>
       </c>
       <c r="Q8">
-        <v>0.06672383300284045</v>
+        <v>0.01368628628890079</v>
       </c>
       <c r="R8">
-        <v>0.6643543223052294</v>
+        <v>0.1268304489894711</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1425,55 +1422,55 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>34.4</v>
+        <v>889.5</v>
       </c>
       <c r="V8">
-        <v>0.01843614341604587</v>
+        <v>0.1161636608203936</v>
       </c>
       <c r="W8">
-        <v>0.1470265181233328</v>
+        <v>0.09635027985074626</v>
       </c>
       <c r="X8">
-        <v>0.0779027893107619</v>
+        <v>0.05754883927473424</v>
       </c>
       <c r="Y8">
-        <v>0.06912372881257094</v>
+        <v>0.03880144057601202</v>
       </c>
       <c r="Z8">
-        <v>0.1666780915149389</v>
+        <v>0.1856920956279456</v>
       </c>
       <c r="AA8">
-        <v>0.001440583842644709</v>
+        <v>0.001207079293322671</v>
       </c>
       <c r="AB8">
-        <v>0.0515028369299069</v>
+        <v>0.04598496391510937</v>
       </c>
       <c r="AC8">
-        <v>-0.0500622530872622</v>
+        <v>-0.0447778846217867</v>
       </c>
       <c r="AD8">
-        <v>2674.3</v>
+        <v>5708.1</v>
       </c>
       <c r="AE8">
-        <v>23.0652491697783</v>
+        <v>96.09781721577437</v>
       </c>
       <c r="AF8">
-        <v>2697.365249169779</v>
+        <v>5804.197817215775</v>
       </c>
       <c r="AG8">
-        <v>2662.965249169778</v>
+        <v>4914.697817215775</v>
       </c>
       <c r="AH8">
-        <v>0.5911041988323001</v>
+        <v>0.4311702825366762</v>
       </c>
       <c r="AI8">
-        <v>0.6593307818097424</v>
+        <v>0.3905921042930053</v>
       </c>
       <c r="AJ8">
-        <v>0.5879983401268005</v>
+        <v>0.3909241704198924</v>
       </c>
       <c r="AK8">
-        <v>0.6564419506181267</v>
+        <v>0.3517911731935148</v>
       </c>
       <c r="AL8">
         <v>0</v>
@@ -1482,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="AN8">
-        <v>252.2924528301887</v>
+        <v>143.7808564231738</v>
       </c>
       <c r="AP8">
-        <v>251.22313671413</v>
+        <v>123.7959147913293</v>
       </c>
     </row>
     <row r="9">
@@ -1496,7 +1493,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Krung Thai Bank Public Company Limited (SET:KTB)</t>
+          <t>Thanachart Capital Public Company Limited (SET:TCAP)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1505,13 +1502,10 @@
         </is>
       </c>
       <c r="D9">
-        <v>0.0161</v>
+        <v>-0.18</v>
       </c>
       <c r="E9">
-        <v>-0.047</v>
-      </c>
-      <c r="F9">
-        <v>0.0815</v>
+        <v>0.139</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1520,91 +1514,91 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.008489246851193335</v>
+        <v>0.005186655634885025</v>
       </c>
       <c r="J9">
-        <v>0.006965447118729094</v>
+        <v>0.004013372672595055</v>
       </c>
       <c r="K9">
-        <v>914.5</v>
+        <v>329.5</v>
       </c>
       <c r="L9">
-        <v>0.2855224952386899</v>
+        <v>0.8862291554599246</v>
       </c>
       <c r="M9">
-        <v>327.9</v>
+        <v>442.2</v>
       </c>
       <c r="N9">
-        <v>0.04284874224109768</v>
+        <v>0.366940502862833</v>
       </c>
       <c r="O9">
-        <v>0.3585565882996172</v>
+        <v>1.342033383915023</v>
       </c>
       <c r="P9">
-        <v>327.9</v>
+        <v>288.2</v>
       </c>
       <c r="Q9">
-        <v>0.04284874224109768</v>
+        <v>0.2391502779852294</v>
       </c>
       <c r="R9">
-        <v>0.3585565882996172</v>
+        <v>0.8746585735963581</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>0.3482587064676617</v>
       </c>
       <c r="U9">
-        <v>1876.5</v>
+        <v>0.106</v>
       </c>
       <c r="V9">
-        <v>0.2452139823587063</v>
+        <v>8.79595054352336e-05</v>
       </c>
       <c r="W9">
-        <v>0.09928454331281417</v>
+        <v>0.1425913103687035</v>
       </c>
       <c r="X9">
-        <v>0.06283225008182242</v>
+        <v>0.07254982298904752</v>
       </c>
       <c r="Y9">
-        <v>0.03645229323099175</v>
+        <v>0.07004148737965593</v>
       </c>
       <c r="Z9">
-        <v>0.2796602351437729</v>
+        <v>0.08811236657963244</v>
       </c>
       <c r="AA9">
-        <v>0.001947958579105294</v>
+        <v>0.0003536277641483746</v>
       </c>
       <c r="AB9">
-        <v>0.05238467256232351</v>
+        <v>0.04591650879507319</v>
       </c>
       <c r="AC9">
-        <v>-0.05043671398321822</v>
+        <v>-0.04556288103092482</v>
       </c>
       <c r="AD9">
-        <v>5674.7</v>
+        <v>1655.1</v>
       </c>
       <c r="AE9">
-        <v>92.04895630156435</v>
+        <v>10.70800717474874</v>
       </c>
       <c r="AF9">
-        <v>5766.748956301564</v>
+        <v>1665.808007174749</v>
       </c>
       <c r="AG9">
-        <v>3890.248956301564</v>
+        <v>1665.702007174749</v>
       </c>
       <c r="AH9">
-        <v>0.4297370870069109</v>
+        <v>0.5802373336281385</v>
       </c>
       <c r="AI9">
-        <v>0.3383200193253628</v>
+        <v>0.4248634475665373</v>
       </c>
       <c r="AJ9">
-        <v>0.3370296773350295</v>
+        <v>0.5802218345297944</v>
       </c>
       <c r="AK9">
-        <v>0.2564647201630584</v>
+        <v>0.4248478981892967</v>
       </c>
       <c r="AL9">
         <v>0</v>
@@ -1613,10 +1607,10 @@
         <v>0</v>
       </c>
       <c r="AN9">
-        <v>124.4451754385965</v>
+        <v>406.6584766584766</v>
       </c>
       <c r="AP9">
-        <v>85.3124771118764</v>
+        <v>409.2633924262281</v>
       </c>
     </row>
     <row r="10">
@@ -1627,7 +1621,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Bank of Ayudhya Public Company Limited (SET:BAY)</t>
+          <t>Krung Thai Bank Public Company Limited (SET:KTB)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1636,10 +1630,13 @@
         </is>
       </c>
       <c r="D10">
-        <v>0.137</v>
+        <v>-0.00461</v>
       </c>
       <c r="E10">
-        <v>0.236</v>
+        <v>-0.0696</v>
+      </c>
+      <c r="F10">
+        <v>-0.126</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1648,34 +1645,34 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.007322233533920171</v>
+        <v>0.01144928140003398</v>
       </c>
       <c r="J10">
-        <v>0.005838180995435049</v>
+        <v>0.009357282817309001</v>
       </c>
       <c r="K10">
-        <v>1059.5</v>
+        <v>656.7</v>
       </c>
       <c r="L10">
-        <v>0.342436974789916</v>
+        <v>0.2444444444444445</v>
       </c>
       <c r="M10">
-        <v>204.3</v>
+        <v>333.3</v>
       </c>
       <c r="N10">
-        <v>0.02772951843205386</v>
+        <v>0.06449553001277139</v>
       </c>
       <c r="O10">
-        <v>0.1928268050967438</v>
+        <v>0.507537688442211</v>
       </c>
       <c r="P10">
-        <v>204.3</v>
+        <v>333.3</v>
       </c>
       <c r="Q10">
-        <v>0.02772951843205386</v>
+        <v>0.06449553001277139</v>
       </c>
       <c r="R10">
-        <v>0.1928268050967438</v>
+        <v>0.507537688442211</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1684,55 +1681,55 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>996.8</v>
+        <v>1723</v>
       </c>
       <c r="V10">
-        <v>0.1352950757370107</v>
+        <v>0.3334107357095863</v>
       </c>
       <c r="W10">
-        <v>0.1445942626306739</v>
+        <v>0.05986053507132766</v>
       </c>
       <c r="X10">
-        <v>0.06461214668966167</v>
+        <v>0.06197268000767155</v>
       </c>
       <c r="Y10">
-        <v>0.07998211594101223</v>
+        <v>-0.002112144936343888</v>
       </c>
       <c r="Z10">
-        <v>0.2436426696348467</v>
+        <v>0.1806799433872408</v>
       </c>
       <c r="AA10">
-        <v>0.001422430003539222</v>
+        <v>0.001690673329689792</v>
       </c>
       <c r="AB10">
-        <v>0.05211809204801272</v>
+        <v>0.04762925339135921</v>
       </c>
       <c r="AC10">
-        <v>-0.0506956620444735</v>
+        <v>-0.04593858006166941</v>
       </c>
       <c r="AD10">
-        <v>6083.5</v>
+        <v>4769.4</v>
       </c>
       <c r="AE10">
-        <v>70.72504723025494</v>
+        <v>99.20752759404358</v>
       </c>
       <c r="AF10">
-        <v>6154.225047230255</v>
+        <v>4868.607527594043</v>
       </c>
       <c r="AG10">
-        <v>5157.425047230255</v>
+        <v>3145.607527594043</v>
       </c>
       <c r="AH10">
-        <v>0.4551327225233443</v>
+        <v>0.4850946430989695</v>
       </c>
       <c r="AI10">
-        <v>0.4166529870978126</v>
+        <v>0.3053508293896225</v>
       </c>
       <c r="AJ10">
-        <v>0.4117696394044938</v>
+        <v>0.3783776408353703</v>
       </c>
       <c r="AK10">
-        <v>0.3744366600813874</v>
+        <v>0.2211897549849424</v>
       </c>
       <c r="AL10">
         <v>0</v>
@@ -1741,10 +1738,10 @@
         <v>0</v>
       </c>
       <c r="AN10">
-        <v>165.3125</v>
+        <v>94.25691699604742</v>
       </c>
       <c r="AP10">
-        <v>140.1474197616917</v>
+        <v>62.16615667181903</v>
       </c>
     </row>
     <row r="11">
@@ -1764,13 +1761,13 @@
         </is>
       </c>
       <c r="D11">
-        <v>0.0322</v>
+        <v>0.006790000000000001</v>
       </c>
       <c r="E11">
-        <v>0.00371</v>
+        <v>-0.08359999999999999</v>
       </c>
       <c r="F11">
-        <v>0.0415</v>
+        <v>-0.015</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1779,34 +1776,34 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>-1.02125392945719e-05</v>
+        <v>-9.563440131105536e-05</v>
       </c>
       <c r="J11">
-        <v>-8.238920589609755e-06</v>
+        <v>-7.466730183247149e-05</v>
       </c>
       <c r="K11">
-        <v>1173.7</v>
+        <v>721.6</v>
       </c>
       <c r="L11">
-        <v>0.3580536912751678</v>
+        <v>0.2490680657186249</v>
       </c>
       <c r="M11">
-        <v>395.2</v>
+        <v>302.2</v>
       </c>
       <c r="N11">
-        <v>0.03875687709009601</v>
+        <v>0.04010563894307972</v>
       </c>
       <c r="O11">
-        <v>0.3367129590184885</v>
+        <v>0.4187915742793791</v>
       </c>
       <c r="P11">
-        <v>395.2</v>
+        <v>302.2</v>
       </c>
       <c r="Q11">
-        <v>0.03875687709009601</v>
+        <v>0.04010563894307972</v>
       </c>
       <c r="R11">
-        <v>0.3367129590184885</v>
+        <v>0.4187915742793791</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -1815,55 +1812,55 @@
         <v>0</v>
       </c>
       <c r="U11">
-        <v>1693.6</v>
+        <v>1835.4</v>
       </c>
       <c r="V11">
-        <v>0.1660896939265855</v>
+        <v>0.2435800453875861</v>
       </c>
       <c r="W11">
-        <v>0.09374825275366024</v>
+        <v>0.05133129886112237</v>
       </c>
       <c r="X11">
-        <v>0.05948238663777625</v>
+        <v>0.06209237027148826</v>
       </c>
       <c r="Y11">
-        <v>0.03426586611588399</v>
+        <v>-0.01076107141036588</v>
       </c>
       <c r="Z11">
-        <v>0.2095932401010192</v>
+        <v>0.1567826514986029</v>
       </c>
       <c r="AA11">
-        <v>-1.726822061311308e-06</v>
+        <v>-1.170653756154137e-05</v>
       </c>
       <c r="AB11">
-        <v>0.05111390913277116</v>
+        <v>0.04683690086684147</v>
       </c>
       <c r="AC11">
-        <v>-0.05111563595483247</v>
+        <v>-0.04684860740440301</v>
       </c>
       <c r="AD11">
-        <v>6105.7</v>
+        <v>7127.1</v>
       </c>
       <c r="AE11">
-        <v>9.917383519038033</v>
+        <v>9.285359937391949</v>
       </c>
       <c r="AF11">
-        <v>6115.617383519038</v>
+        <v>7136.385359937392</v>
       </c>
       <c r="AG11">
-        <v>4422.017383519038</v>
+        <v>5300.985359937393</v>
       </c>
       <c r="AH11">
-        <v>0.374903348130547</v>
+        <v>0.4864119197790513</v>
       </c>
       <c r="AI11">
-        <v>0.3030276000452382</v>
+        <v>0.3383586668150441</v>
       </c>
       <c r="AJ11">
-        <v>0.3024859685235172</v>
+        <v>0.4129752343718637</v>
       </c>
       <c r="AK11">
-        <v>0.2391815938739647</v>
+        <v>0.2752931267590027</v>
       </c>
       <c r="AL11">
         <v>0</v>
@@ -1872,10 +1869,10 @@
         <v>0</v>
       </c>
       <c r="AN11">
-        <v>3131.128205128205</v>
+        <v>4510.822784810127</v>
       </c>
       <c r="AP11">
-        <v>2267.701222317456</v>
+        <v>3355.054025276831</v>
       </c>
     </row>
     <row r="12">
@@ -1895,13 +1892,13 @@
         </is>
       </c>
       <c r="D12">
-        <v>0.00443</v>
+        <v>-0.0331</v>
       </c>
       <c r="E12">
-        <v>-0.0416</v>
+        <v>-0.107</v>
       </c>
       <c r="F12">
-        <v>0.101</v>
+        <v>0.0165</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1910,91 +1907,91 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>-0.004372091150182561</v>
+        <v>-0.005291905747443996</v>
       </c>
       <c r="J12">
-        <v>-0.003547793894530857</v>
+        <v>-0.004296460000960963</v>
       </c>
       <c r="K12">
-        <v>1207.7</v>
+        <v>792.7</v>
       </c>
       <c r="L12">
-        <v>0.3002660301832376</v>
+        <v>0.2361404867586166</v>
       </c>
       <c r="M12">
-        <v>312.8</v>
+        <v>439.2</v>
       </c>
       <c r="N12">
-        <v>0.02592515850980067</v>
+        <v>0.0492442929542091</v>
       </c>
       <c r="O12">
-        <v>0.259004719715161</v>
+        <v>0.5540557587990412</v>
       </c>
       <c r="P12">
-        <v>312.8</v>
+        <v>337.6</v>
       </c>
       <c r="Q12">
-        <v>0.02592515850980067</v>
+        <v>0.03785262591380007</v>
       </c>
       <c r="R12">
-        <v>0.259004719715161</v>
+        <v>0.4258862116815946</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>101.6</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>0.2313296903460838</v>
       </c>
       <c r="U12">
-        <v>1621.8</v>
+        <v>1382.8</v>
       </c>
       <c r="V12">
-        <v>0.1344163109692926</v>
+        <v>0.155043279364937</v>
       </c>
       <c r="W12">
-        <v>0.1053251238400893</v>
+        <v>0.06048559394457331</v>
       </c>
       <c r="X12">
-        <v>0.06044010915132157</v>
+        <v>0.05897954906519282</v>
       </c>
       <c r="Y12">
-        <v>0.04488501468876774</v>
+        <v>0.001506044879380497</v>
       </c>
       <c r="Z12">
-        <v>0.2465272072673755</v>
+        <v>0.1743694063005497</v>
       </c>
       <c r="AA12">
-        <v>-0.0008746277207789382</v>
+        <v>-0.0007491711795616222</v>
       </c>
       <c r="AB12">
-        <v>0.05132324036634608</v>
+        <v>0.04627235090190205</v>
       </c>
       <c r="AC12">
-        <v>-0.05219786808712502</v>
+        <v>-0.04702152208146367</v>
       </c>
       <c r="AD12">
-        <v>7678.7</v>
+        <v>7202.3</v>
       </c>
       <c r="AE12">
-        <v>88.23493907574638</v>
+        <v>89.15699201797375</v>
       </c>
       <c r="AF12">
-        <v>7766.934939075746</v>
+        <v>7291.456992017974</v>
       </c>
       <c r="AG12">
-        <v>6145.134939075746</v>
+        <v>5908.656992017974</v>
       </c>
       <c r="AH12">
-        <v>0.3916279046388093</v>
+        <v>0.449805144706116</v>
       </c>
       <c r="AI12">
-        <v>0.3463356300021821</v>
+        <v>0.335233899595019</v>
       </c>
       <c r="AJ12">
-        <v>0.3374475936525271</v>
+        <v>0.3984942930671636</v>
       </c>
       <c r="AK12">
-        <v>0.2953790397518339</v>
+        <v>0.2901014095275919</v>
       </c>
       <c r="AL12">
         <v>0</v>
@@ -2003,10 +2000,10 @@
         <v>0</v>
       </c>
       <c r="AN12">
-        <v>123850</v>
+        <v>107497.0149253731</v>
       </c>
       <c r="AP12">
-        <v>99115.07966251203</v>
+        <v>88188.91032862647</v>
       </c>
     </row>
     <row r="13">
@@ -2026,10 +2023,10 @@
         </is>
       </c>
       <c r="D13">
-        <v>0.0371</v>
+        <v>0.0716</v>
       </c>
       <c r="E13">
-        <v>-0.327</v>
+        <v>0.16</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -2038,88 +2035,91 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.003258741818068229</v>
+        <v>0.003502702711866543</v>
       </c>
       <c r="J13">
-        <v>0.001629370909034114</v>
+        <v>0.003005762795444706</v>
       </c>
       <c r="K13">
-        <v>6.46</v>
+        <v>62.3</v>
       </c>
       <c r="L13">
-        <v>0.01988304093567252</v>
+        <v>0.1652081675948024</v>
       </c>
       <c r="M13">
-        <v>-0</v>
+        <v>5.51</v>
       </c>
       <c r="N13">
-        <v>-0</v>
+        <v>0.007916666666666666</v>
       </c>
       <c r="O13">
-        <v>-0</v>
+        <v>0.0884430176565008</v>
       </c>
       <c r="P13">
-        <v>-0</v>
+        <v>5.51</v>
       </c>
       <c r="Q13">
-        <v>-0</v>
+        <v>0.007916666666666666</v>
       </c>
       <c r="R13">
-        <v>-0</v>
+        <v>0.0884430176565008</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
       <c r="U13">
-        <v>43.8</v>
+        <v>33.1</v>
       </c>
       <c r="V13">
-        <v>0.07108081791626095</v>
+        <v>0.04755747126436782</v>
       </c>
       <c r="W13">
-        <v>0.006280381100524986</v>
+        <v>0.05028654451529582</v>
       </c>
       <c r="X13">
-        <v>0.1711739422425204</v>
+        <v>0.1552479827660847</v>
       </c>
       <c r="Y13">
-        <v>-0.1648935611419954</v>
+        <v>-0.1049614382507889</v>
       </c>
       <c r="Z13">
-        <v>0.09501510868258001</v>
+        <v>0.07979777531332857</v>
       </c>
       <c r="AA13">
-        <v>0.0001548148540061105</v>
+        <v>0.000239853184196059</v>
       </c>
       <c r="AB13">
-        <v>0.05374027532945028</v>
+        <v>0.04872999605189794</v>
       </c>
       <c r="AC13">
-        <v>-0.05358546047544416</v>
+        <v>-0.04849014286770188</v>
       </c>
       <c r="AD13">
-        <v>3521.8</v>
+        <v>3348.7</v>
       </c>
       <c r="AE13">
-        <v>8.156173916548163</v>
+        <v>8.795654036775632</v>
       </c>
       <c r="AF13">
-        <v>3529.956173916548</v>
+        <v>3357.495654036775</v>
       </c>
       <c r="AG13">
-        <v>3486.156173916548</v>
+        <v>3324.395654036775</v>
       </c>
       <c r="AH13">
-        <v>0.8513804173908085</v>
+        <v>0.8282963497674234</v>
       </c>
       <c r="AI13">
-        <v>0.7402102401879482</v>
+        <v>0.7182891076085878</v>
       </c>
       <c r="AJ13">
-        <v>0.8497936371498164</v>
+        <v>0.8268827100882062</v>
       </c>
       <c r="AK13">
-        <v>0.737802058981007</v>
+        <v>0.7162800066714089</v>
       </c>
       <c r="AL13">
         <v>0</v>
@@ -2128,10 +2128,10 @@
         <v>0</v>
       </c>
       <c r="AN13">
-        <v>1309.219330855019</v>
+        <v>1087.24025974026</v>
       </c>
       <c r="AP13">
-        <v>1295.968837887193</v>
+        <v>1079.349238323628</v>
       </c>
     </row>
   </sheetData>
